--- a/emotions/adfes_experiments.xlsx
+++ b/emotions/adfes_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554D73D-4533-41BE-AAC6-A13CA7F1B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE3D4D9-E094-48E1-A687-138D25E244A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="ADFES_Arch_1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="11">
   <si>
     <t>angry</t>
   </si>
@@ -189,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -199,8 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -515,18 +514,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -545,22 +544,72 @@
       <c r="J2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>-4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>B2+L2</f>
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:V6" si="1">C2+M2</f>
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2</v>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -570,27 +619,77 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <f t="shared" ref="H3:H43" si="2">J3-G3</f>
         <v>0</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-4</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="3">B3+L3</f>
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>11</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="5">
@@ -601,27 +700,77 @@
         <v>22</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>-4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>13</v>
       </c>
       <c r="F5" s="5">
@@ -632,14 +781,64 @@
         <v>22</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>-4</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -663,32 +862,82 @@
         <v>22</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>-4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
@@ -699,7 +948,7 @@
         <v>110</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -707,7 +956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -733,131 +982,331 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G16" si="4">SUM(B11:F11)</f>
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>B11+L11</f>
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S15" si="5">C11+M11</f>
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T15" si="6">D11+N11</f>
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U11:U15" si="7">E11+O11</f>
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V15" si="8">F11+P11</f>
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>-4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R15" si="9">B12+L12</f>
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>13</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>-4</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>16</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
       </c>
       <c r="G14">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>-4</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -877,47 +1326,97 @@
         <v>13</v>
       </c>
       <c r="G15">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>-4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <f>SUM(B11:B15)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <f>SUM(C11:C15)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <f>SUM(D11:D15)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <f>SUM(E11:E15)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <f>SUM(F11:F15)</f>
         <v>19</v>
       </c>
       <c r="G16">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -925,7 +1424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -951,12 +1450,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -965,122 +1464,322 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
+        <f t="shared" ref="G20:G25" si="10">SUM(B20:F20)</f>
         <v>22</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>-4</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f>B20+L20</f>
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:S24" si="11">C20+M20</f>
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T24" si="12">D20+N20</f>
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U24" si="13">E20+O20</f>
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="14">F20+P20</f>
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>12</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>-4</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R24" si="15">B21+L21</f>
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>14</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>-4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
       </c>
       <c r="F23" s="5">
         <v>4</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>-4</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>12</v>
+      </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1092,31 +1791,81 @@
         <v>4</v>
       </c>
       <c r="F24" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>-4</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
         <f>SUM(B20:B24)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <f>SUM(D20:D24)</f>
@@ -1124,18 +1873,18 @@
       </c>
       <c r="E25">
         <f>SUM(E20:E24)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <f>SUM(F20:F24)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25">
@@ -1143,7 +1892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1189,116 +1938,316 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
+        <f t="shared" ref="G29:G34" si="16">SUM(B29:F29)</f>
         <v>22</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>-4</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f>B29+L29</f>
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S33" si="17">C29+M29</f>
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T33" si="18">D29+N29</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U33" si="19">E29+O29</f>
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V33" si="20">F29+P29</f>
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30">
         <v>17</v>
       </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="5">
         <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>-4</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R33" si="21">B30+L30</f>
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>13</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>-4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>17</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>16</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>-4</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>12</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -1310,35 +2259,85 @@
         <v>3</v>
       </c>
       <c r="F33" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>-4</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
         <f>SUM(B29:B33)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <f>SUM(C29:C33)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <f>SUM(D29:D33)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <f>SUM(E29:E33)</f>
@@ -1349,11 +2348,11 @@
         <v>25</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34">
@@ -1361,7 +2360,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1387,131 +2386,331 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G43" si="22">SUM(B38:F38)</f>
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="L38">
+        <v>-4</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <f>B38+L38</f>
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S42" si="23">C38+M38</f>
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T42" si="24">D38+N38</f>
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U42" si="25">E38+O38</f>
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V42" si="26">F38+P38</f>
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>12</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>22</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>-4</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R42" si="27">B39+L39</f>
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>14</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>-4</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
-        <v>22</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="U40">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
         <v>18</v>
       </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>22</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <v>17</v>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
       </c>
       <c r="F41" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>-4</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>13</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1519,44 +2718,94 @@
         <v>2</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
         <v>1</v>
       </c>
       <c r="E42" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="8">
         <v>15</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>-4</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
+      <c r="AA42">
+        <v>5</v>
+      </c>
+      <c r="AB42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43">
         <f>SUM(B38:B42)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <f>SUM(D38:D42)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
@@ -1564,14 +2813,14 @@
       </c>
       <c r="F43">
         <f>SUM(F38:F42)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -1614,7 +2863,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ADFES!B2</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>ADFES!C2</f>
@@ -1622,7 +2871,7 @@
       </c>
       <c r="C2">
         <f>ADFES!D2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>ADFES!E2</f>
@@ -1640,7 +2889,7 @@
       </c>
       <c r="B3">
         <f>ADFES!C3</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <f>ADFES!D3</f>
@@ -1648,7 +2897,7 @@
       </c>
       <c r="D3">
         <f>ADFES!E3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>ADFES!F3</f>
@@ -1756,7 +3005,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ADFES!B11</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>ADFES!C11</f>
@@ -1764,11 +3013,11 @@
       </c>
       <c r="C2">
         <f>ADFES!D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>ADFES!E11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>ADFES!F11</f>
@@ -1782,7 +3031,7 @@
       </c>
       <c r="B3">
         <f>ADFES!C12</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>ADFES!D12</f>
@@ -1790,7 +3039,7 @@
       </c>
       <c r="D3">
         <f>ADFES!E12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>ADFES!F12</f>
@@ -1808,11 +3057,11 @@
       </c>
       <c r="C4">
         <f>ADFES!D13</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <f>ADFES!E13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f>ADFES!F13</f>
@@ -1898,7 +3147,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ADFES!B20</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f>ADFES!C20</f>
@@ -1910,7 +3159,7 @@
       </c>
       <c r="D2">
         <f>ADFES!E20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>ADFES!F20</f>
@@ -1924,7 +3173,7 @@
       </c>
       <c r="B3">
         <f>ADFES!C21</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <f>ADFES!D21</f>
@@ -1932,7 +3181,7 @@
       </c>
       <c r="D3">
         <f>ADFES!E21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>ADFES!F21</f>
@@ -1964,11 +3213,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>ADFES!B23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>ADFES!C23</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f>ADFES!D23</f>
@@ -1976,7 +3225,7 @@
       </c>
       <c r="D5">
         <f>ADFES!E23</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f>ADFES!F23</f>
@@ -1986,7 +3235,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>ADFES!B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f>ADFES!C24</f>
@@ -2002,7 +3251,7 @@
       </c>
       <c r="E6">
         <f>ADFES!F24</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2092,15 +3341,15 @@
       </c>
       <c r="C4">
         <f>ADFES!D31</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <f>ADFES!E31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f>ADFES!F31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2110,7 +3359,7 @@
       </c>
       <c r="B5">
         <f>ADFES!C32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>ADFES!D32</f>
@@ -2118,7 +3367,7 @@
       </c>
       <c r="D5">
         <f>ADFES!E32</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f>ADFES!F32</f>
@@ -2128,7 +3377,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>ADFES!B33</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <f>ADFES!C33</f>
@@ -2144,7 +3393,7 @@
       </c>
       <c r="E6">
         <f>ADFES!F33</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +3406,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2182,7 +3431,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ADFES!B38</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f>ADFES!C38</f>
@@ -2194,7 +3443,7 @@
       </c>
       <c r="D2">
         <f>ADFES!E38</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>ADFES!F38</f>
@@ -2226,7 +3475,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>ADFES!B40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f>ADFES!C40</f>
@@ -2234,11 +3483,11 @@
       </c>
       <c r="C4">
         <f>ADFES!D40</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <f>ADFES!E40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f>ADFES!F40</f>
@@ -2252,7 +3501,7 @@
       </c>
       <c r="B5">
         <f>ADFES!C41</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f>ADFES!D41</f>
@@ -2260,11 +3509,11 @@
       </c>
       <c r="D5">
         <f>ADFES!E41</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f>ADFES!F41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2274,7 +3523,7 @@
       </c>
       <c r="B6">
         <f>ADFES!C42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>ADFES!D42</f>
@@ -2282,11 +3531,1116 @@
       </c>
       <c r="D6">
         <f>ADFES!E42</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f>ADFES!F42</f>
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C448FD3F-030A-43F1-AC63-229592296F83}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <f>J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B11:B15)</f>
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C11:C15)</f>
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D11:D15)</f>
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E11:E15)</f>
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F11:F15)</f>
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J11:J15)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B20:B24)</f>
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C20:C24)</f>
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D20:D24)</f>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E20:E24)</f>
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F20:F24)</f>
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>SUM(J20:J24)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B29:B33)</f>
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)</f>
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)</f>
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E29:E33)</f>
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J29:J33)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B38:B42)</f>
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C38:C42)</f>
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D38:D42)</f>
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E38:E42)</f>
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F38:F42)</f>
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J38:J42)</f>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
